--- a/test2.xlsx
+++ b/test2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="54">
   <si>
     <t>staff_no</t>
     <phoneticPr fontId="1"/>
@@ -140,7 +140,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>76:10:6C:93</t>
+    <t>52:C6:D7:F0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>76:10:6C:93</t>
+    <t>52:C6:D7:F0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -229,250 +229,6 @@
   </si>
   <si>
     <t>2308842XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>91:B3:87:67</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>staff_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>staff_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>patron_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>signature</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>expiry_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cepas_can_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>printed_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>42XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lee Teck Meng</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2308842XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000090013836044</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9/25/2017 11:56:52 PM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>43XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Raja Muhd Fadlin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2308843XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>76:10:6C:93</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>43XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fong Zu Rong</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2308842XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>91:B3:87:67</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>staff_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>staff_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>patron_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>signature</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>expiry_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cepas_can_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>printed_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>42XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lee Teck Meng</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2308842XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000090013836044</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9/25/2017 11:56:52 PM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>43XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Raja Muhd Fadlin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2308843XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>76:10:6C:93</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>43XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fong Zu Rong</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2308842XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>91:B3:87:67</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>staff_no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>staff_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>patron_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>signature</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>expiry_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cepas_can_number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>printed_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>42XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Lee Teck Meng</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2308842XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000090013836044</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9/25/2017 11:56:52 PM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>43XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Raja Muhd Fadlin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2308843XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>76:10:6C:93</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>43XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Fong Zu Rong</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2308842XXX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>91:B3:87:67</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -838,25 +594,25 @@
   <sheetData>
     <row r="1" spans="1:26" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="1">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -880,21 +636,21 @@
     </row>
     <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" t="s" s="6">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s" s="6">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -918,18 +674,18 @@
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s" s="4">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s" s="4">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" t="s" s="6">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="3"/>
@@ -954,18 +710,18 @@
     </row>
     <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" t="s" s="4">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" t="s" s="5">
-        <v>114</v>
+      <c r="F4" s="5">
+        <v>1000150016843140</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="3"/>
